--- a/Contratos de TV.xlsx
+++ b/Contratos de TV.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE112F1C-A85A-4437-BBDB-BAA8BD21D86F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDC2973-E4DA-4E90-986A-BB3CBCE8CEEF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TV Deals" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="68">
   <si>
     <t>Brazil</t>
   </si>
@@ -218,6 +218,12 @@
   </si>
   <si>
     <t>https://www.tipsbladet.dk/nyhed/superliga/tv-millioner-regner-over-superligaen-broendby-er-den-store-vinder</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -263,18 +269,113 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -286,26 +387,16 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -316,6 +407,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -739,7 +870,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$10:$B$34</c:f>
+              <c:f>'TV Deals'!$B$10:$B$34</c:f>
               <c:strCache>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
@@ -822,7 +953,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$10:$C$34</c:f>
+              <c:f>'TV Deals'!$C$10:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1961,10 +2092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:T60"/>
+  <dimension ref="B1:T57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1981,175 +2112,231 @@
     <col min="14" max="14" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.5703125" customWidth="1"/>
     <col min="18" max="18" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="19" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+    </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="N2" t="s">
+      <c r="N2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="R2" t="s">
+      <c r="Q2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="R2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="11" t="s">
         <v>12</v>
       </c>
+      <c r="T2" s="11"/>
     </row>
     <row r="3" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N3" t="s">
+      <c r="N3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="12">
         <v>2419583748</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="13">
         <v>2714578519.79</v>
       </c>
-      <c r="R3" t="s">
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="13">
         <v>1850000000</v>
       </c>
+      <c r="T3" s="11"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="N5" t="s">
+      <c r="N5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="R5" t="s">
+      <c r="Q5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="R5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="11" t="s">
         <v>12</v>
       </c>
+      <c r="T5" s="11"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="N6" t="s">
+      <c r="N6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="27">
         <v>3200000000</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="17">
         <v>75044212.670000002</v>
       </c>
-      <c r="R6" t="s">
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="17">
         <v>973000000</v>
       </c>
+      <c r="T6" s="16"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="J7" s="17"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="5"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="31"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="H8" s="5"/>
-      <c r="N8" t="s">
+      <c r="H8" s="4"/>
+      <c r="N8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="R8" t="s">
+      <c r="Q8" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="R8" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="T8" s="18"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D9" s="5"/>
-      <c r="N9" t="s">
+      <c r="D9" s="4"/>
+      <c r="N9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="29">
         <v>21000000000</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="17">
         <v>169120336.36000001</v>
       </c>
-      <c r="R9" t="s">
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="17">
         <v>579000000</v>
       </c>
+      <c r="T9" s="16"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="9">
         <v>10</v>
       </c>
+      <c r="N10" s="30"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="31"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="9">
         <v>25</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="R11" t="s">
+      <c r="Q11" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="R11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S11" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="T11" s="18"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="9">
         <v>30</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="27">
         <v>11600000</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="17">
         <v>10114968</v>
       </c>
-      <c r="R12" t="s">
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S12" s="17">
         <v>960564000</v>
       </c>
-      <c r="T12" s="16" t="s">
+      <c r="T12" s="32" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2157,602 +2344,739 @@
       <c r="B13" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="9">
         <v>41</v>
       </c>
-      <c r="O13" s="3"/>
-      <c r="P13" s="1"/>
-      <c r="S13" s="1"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="31"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="9">
         <v>36</v>
       </c>
+      <c r="N14" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="P14" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q14" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="R14" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="S14" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="T14" s="33"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="9">
         <v>37</v>
       </c>
+      <c r="N15" s="30"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="31"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="9">
         <v>53</v>
       </c>
-      <c r="N16" t="s">
-        <v>35</v>
-      </c>
-      <c r="O16" t="s">
-        <v>36</v>
-      </c>
-      <c r="P16" t="s">
-        <v>14</v>
-      </c>
-      <c r="R16" t="s">
-        <v>24</v>
-      </c>
-      <c r="S16" t="s">
-        <v>12</v>
-      </c>
+      <c r="N16" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="O16" s="36">
+        <v>57600000</v>
+      </c>
+      <c r="P16" s="37">
+        <v>36154080</v>
+      </c>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="S16" s="37">
+        <v>153000000</v>
+      </c>
+      <c r="T16" s="33"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="9">
         <v>58</v>
       </c>
+      <c r="N17" s="30"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="31"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="9">
         <v>75</v>
       </c>
-      <c r="N18" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
-        <v>57600000</v>
-      </c>
-      <c r="P18" s="1">
-        <v>36154080</v>
-      </c>
-      <c r="R18" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="1">
-        <v>153000000</v>
-      </c>
+      <c r="N18" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="O18" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="P18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q18" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="R18" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="S18" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="T18" s="18"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="9">
         <v>78</v>
       </c>
-      <c r="O19" s="3"/>
-      <c r="P19" s="1"/>
-      <c r="S19" s="1"/>
+      <c r="N19" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="O19" s="38">
+        <v>1100000000</v>
+      </c>
+      <c r="P19" s="17">
+        <v>142252000</v>
+      </c>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="S19" s="17">
+        <v>565000000</v>
+      </c>
+      <c r="T19" s="16"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="9">
         <v>80</v>
       </c>
-      <c r="N20" t="s">
-        <v>38</v>
-      </c>
-      <c r="O20" t="s">
-        <v>39</v>
-      </c>
-      <c r="P20" t="s">
-        <v>14</v>
-      </c>
-      <c r="R20" t="s">
-        <v>32</v>
-      </c>
-      <c r="S20" t="s">
-        <v>12</v>
-      </c>
+      <c r="N20" s="30"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="31"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="9">
         <v>80</v>
       </c>
-      <c r="N21" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="8">
-        <v>1100000000</v>
-      </c>
-      <c r="P21" s="1">
-        <v>142252000</v>
-      </c>
-      <c r="R21" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="1">
-        <v>565000000</v>
-      </c>
+      <c r="N21" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="O21" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="P21" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q21" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="R21" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="S21" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="T21" s="18"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="9">
         <v>110</v>
+      </c>
+      <c r="N22" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="39">
+        <v>500000000</v>
+      </c>
+      <c r="P22" s="17">
+        <v>25487394</v>
+      </c>
+      <c r="Q22" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="R22" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="17">
+        <v>80000000</v>
+      </c>
+      <c r="T22" s="32" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="10">
         <v>125</v>
       </c>
-      <c r="N23" t="s">
-        <v>42</v>
-      </c>
-      <c r="O23" t="s">
-        <v>43</v>
-      </c>
-      <c r="P23" t="s">
-        <v>14</v>
-      </c>
-      <c r="R23" t="s">
-        <v>33</v>
-      </c>
-      <c r="S23" t="s">
-        <v>12</v>
-      </c>
+      <c r="N23" s="30"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="31"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="9">
         <v>142</v>
       </c>
-      <c r="N24" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="9">
-        <v>500000000</v>
-      </c>
-      <c r="P24" s="1">
-        <v>25487394</v>
-      </c>
-      <c r="Q24" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="R24" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="1">
-        <v>80000000</v>
-      </c>
-      <c r="T24" s="16" t="s">
-        <v>53</v>
-      </c>
+      <c r="N24" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="O24" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="P24" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q24" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="R24" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="S24" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="T24" s="18"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="9">
         <v>153</v>
+      </c>
+      <c r="N25" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="O25" s="27">
+        <v>40800000</v>
+      </c>
+      <c r="P25" s="17">
+        <v>30040000</v>
+      </c>
+      <c r="Q25" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="R25" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="S25" s="13">
+        <v>80000000</v>
+      </c>
+      <c r="T25" s="15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="9">
         <v>154</v>
       </c>
+      <c r="N26" s="30"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="31"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="9">
         <v>169</v>
       </c>
-      <c r="N27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O27" t="s">
-        <v>45</v>
-      </c>
-      <c r="P27" t="s">
+      <c r="N27" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="O27" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="P27" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="R27" t="s">
-        <v>50</v>
-      </c>
-      <c r="S27" t="s">
-        <v>51</v>
+      <c r="Q27" s="18" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="9">
         <v>535</v>
       </c>
-      <c r="N28" t="s">
+      <c r="N28" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="O28" s="3">
-        <v>40800000</v>
-      </c>
-      <c r="P28" s="1">
-        <v>30040000</v>
-      </c>
-      <c r="Q28" s="16" t="s">
-        <v>48</v>
+      <c r="O28" s="40">
+        <v>540000000</v>
+      </c>
+      <c r="P28" s="17">
+        <v>52538220</v>
+      </c>
+      <c r="Q28" s="32" t="s">
+        <v>47</v>
       </c>
       <c r="R28" t="s">
-        <v>5</v>
-      </c>
-      <c r="S28" s="1">
-        <v>80000000</v>
-      </c>
-      <c r="T28" s="16" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="9">
         <v>565</v>
       </c>
+      <c r="N29" s="30"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="31"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="9">
         <v>579</v>
       </c>
-      <c r="N30" t="s">
-        <v>46</v>
-      </c>
-      <c r="O30" t="s">
-        <v>64</v>
-      </c>
-      <c r="P30" t="s">
+      <c r="N30" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="O30" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="P30" s="18" t="s">
         <v>14</v>
+      </c>
+      <c r="Q30" s="18" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="9">
         <v>960</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N31" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="O31" s="14">
-        <v>540000000</v>
-      </c>
-      <c r="P31" s="1">
-        <v>52538220</v>
-      </c>
-      <c r="Q31" s="16" t="s">
-        <v>47</v>
+      <c r="O31" s="41">
+        <v>250000000</v>
+      </c>
+      <c r="P31" s="17">
+        <v>58227491</v>
+      </c>
+      <c r="Q31" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="R31" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="9">
         <v>973</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N32" s="30"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="31"/>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="9">
         <v>1850</v>
       </c>
-      <c r="N33" t="s">
-        <v>55</v>
-      </c>
-      <c r="O33" t="s">
-        <v>56</v>
-      </c>
-      <c r="P33" t="s">
+      <c r="N33" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="O33" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="P33" s="18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q33" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="19">
+      <c r="C34" s="9">
         <v>2714</v>
       </c>
-      <c r="N34" t="s">
+      <c r="N34" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="O34" s="11">
+      <c r="O34" s="42">
+        <v>400000000</v>
+      </c>
+      <c r="P34" s="17">
+        <v>41112000</v>
+      </c>
+      <c r="Q34" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="R34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N35" s="30"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="31"/>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N36" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="O36" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="P36" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q36" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N37" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O37" s="21">
+        <v>660000000</v>
+      </c>
+      <c r="P37" s="13">
+        <v>154935950</v>
+      </c>
+      <c r="Q37" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="R37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N39" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="O39" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="P39" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q39" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N40" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="O40" s="43">
         <v>250000000</v>
       </c>
-      <c r="P34" s="1">
-        <v>58227491</v>
-      </c>
-      <c r="Q34" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="N36" t="s">
-        <v>57</v>
-      </c>
-      <c r="O36" t="s">
-        <v>64</v>
-      </c>
-      <c r="P36" t="s">
+      <c r="P40" s="17">
+        <v>36839000</v>
+      </c>
+      <c r="Q40" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="R40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N41" s="30"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="31"/>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N42" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="O42" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P42" s="18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="N37" t="s">
+      <c r="Q42" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N43" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="O43" s="22">
+        <v>600000000</v>
+      </c>
+      <c r="P43" s="13">
+        <v>140640000</v>
+      </c>
+      <c r="Q43" s="11"/>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N44" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="O44" s="22">
+        <v>650000000</v>
+      </c>
+      <c r="P44" s="13">
+        <v>152360000</v>
+      </c>
+      <c r="Q44" s="11"/>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N45" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="22"/>
+      <c r="P45" s="13">
+        <v>70000000</v>
+      </c>
+      <c r="Q45" s="11"/>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N46" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O46" s="22"/>
+      <c r="P46" s="13">
+        <v>30000000</v>
+      </c>
+      <c r="Q46" s="11"/>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N47" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O47" s="23">
+        <v>600000000</v>
+      </c>
+      <c r="P47" s="13">
+        <v>142000000</v>
+      </c>
+      <c r="Q47" s="11"/>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N48" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="O37" s="12">
-        <v>400000000</v>
-      </c>
-      <c r="P37" s="1">
-        <v>41112000</v>
-      </c>
-      <c r="Q37" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="N39" t="s">
-        <v>60</v>
-      </c>
-      <c r="O39" t="s">
-        <v>61</v>
-      </c>
-      <c r="P39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="N40" t="s">
-        <v>5</v>
-      </c>
-      <c r="O40" s="13">
-        <v>660000000</v>
-      </c>
-      <c r="P40" s="1">
-        <v>154935950</v>
-      </c>
-      <c r="Q40" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="N42" t="s">
-        <v>63</v>
-      </c>
-      <c r="O42" t="s">
-        <v>64</v>
-      </c>
-      <c r="P42" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="N43" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="15">
-        <v>250000000</v>
-      </c>
-      <c r="P43" s="1">
-        <v>36839000</v>
-      </c>
-      <c r="Q43" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="N45" t="s">
-        <v>0</v>
-      </c>
-      <c r="O45" t="s">
-        <v>16</v>
-      </c>
-      <c r="P45" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="N46" t="s">
-        <v>1</v>
-      </c>
-      <c r="O46" s="2">
-        <v>600000000</v>
-      </c>
-      <c r="P46" s="1">
-        <v>140640000</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="N47" t="s">
-        <v>2</v>
-      </c>
-      <c r="O47" s="2">
-        <v>650000000</v>
-      </c>
-      <c r="P47" s="1">
-        <v>152360000</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="N48" t="s">
-        <v>3</v>
-      </c>
-      <c r="O48" s="2"/>
-      <c r="P48" s="1">
-        <v>70000000</v>
-      </c>
+      <c r="O48" s="44">
+        <f>O43+O44+O45+O46</f>
+        <v>1250000000</v>
+      </c>
+      <c r="P48" s="17">
+        <f>SUM(P43:P47)</f>
+        <v>535000000</v>
+      </c>
+      <c r="Q48" s="16"/>
     </row>
     <row r="49" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N49" t="s">
-        <v>4</v>
-      </c>
-      <c r="O49" s="2"/>
-      <c r="P49" s="1">
-        <v>30000000</v>
-      </c>
+      <c r="N49" s="30"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="31"/>
     </row>
     <row r="50" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C50" s="1"/>
-      <c r="N50" t="s">
-        <v>41</v>
-      </c>
-      <c r="O50" s="10">
-        <v>600000000</v>
-      </c>
-      <c r="P50" s="1">
-        <v>142000000</v>
+      <c r="N50" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O50" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="P50" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q50" s="18" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N51" t="s">
-        <v>5</v>
-      </c>
-      <c r="O51" s="2">
-        <f>O46+O47+O48+O49</f>
-        <v>1250000000</v>
-      </c>
-      <c r="P51" s="1">
-        <f>SUM(P46:P50)</f>
-        <v>535000000</v>
-      </c>
+      <c r="N51" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="O51" s="14">
+        <v>45000000</v>
+      </c>
+      <c r="P51" s="13">
+        <v>39224250</v>
+      </c>
+      <c r="Q51" s="11"/>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="N52" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="O52" s="14">
+        <v>30000000</v>
+      </c>
+      <c r="P52" s="13">
+        <v>26149500</v>
+      </c>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="5"/>
     </row>
     <row r="53" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C53" s="10"/>
+      <c r="C53" s="6"/>
       <c r="D53" s="3"/>
-      <c r="N53" t="s">
-        <v>26</v>
-      </c>
-      <c r="O53" t="s">
-        <v>15</v>
-      </c>
-      <c r="P53" t="s">
-        <v>14</v>
-      </c>
+      <c r="N53" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="O53" s="14">
+        <v>15000000</v>
+      </c>
+      <c r="P53" s="13">
+        <v>13074750</v>
+      </c>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="5"/>
     </row>
     <row r="54" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C54" s="2"/>
       <c r="D54" s="3"/>
-      <c r="N54" t="s">
-        <v>6</v>
-      </c>
-      <c r="O54" s="3">
-        <v>45000000</v>
-      </c>
-      <c r="P54" s="1">
-        <v>39224250</v>
-      </c>
+      <c r="N54" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="27">
+        <f>SUM(O51:O53)</f>
+        <v>90000000</v>
+      </c>
+      <c r="P54" s="27">
+        <f>SUM(P51:P53)</f>
+        <v>78448500</v>
+      </c>
+      <c r="Q54" s="16"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="5"/>
     </row>
     <row r="55" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
-      <c r="N55" t="s">
-        <v>7</v>
-      </c>
-      <c r="O55" s="3">
-        <v>30000000</v>
-      </c>
-      <c r="P55" s="1">
-        <v>26149500</v>
-      </c>
-      <c r="R55" s="17"/>
-      <c r="S55" s="18"/>
-      <c r="T55" s="7"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="28"/>
+      <c r="P55" s="28"/>
+      <c r="Q55" s="31"/>
     </row>
     <row r="56" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N56" t="s">
-        <v>8</v>
-      </c>
-      <c r="O56" s="3">
-        <v>15000000</v>
-      </c>
-      <c r="P56" s="1">
-        <v>13074750</v>
-      </c>
-      <c r="R56" s="17"/>
-      <c r="S56" s="18"/>
-      <c r="T56" s="7"/>
+      <c r="N56" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="O56" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="P56" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q56" s="18" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="57" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N57" t="s">
+      <c r="N57" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="O57" s="3">
-        <f>SUM(O54:O56)</f>
-        <v>90000000</v>
-      </c>
-      <c r="P57" s="3">
-        <f>SUM(P54:P56)</f>
-        <v>78448500</v>
-      </c>
-      <c r="R57" s="17"/>
-      <c r="S57" s="18"/>
-      <c r="T57" s="7"/>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N59" t="s">
-        <v>9</v>
-      </c>
-      <c r="O59" t="s">
-        <v>15</v>
-      </c>
-      <c r="P59" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="N60" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="18">
+      <c r="O57" s="25">
         <v>143500000</v>
       </c>
-      <c r="P60" s="7">
+      <c r="P57" s="26">
         <v>125198010</v>
       </c>
+      <c r="Q57" s="11"/>
     </row>
   </sheetData>
   <sortState ref="B10:C35">
@@ -2760,15 +3084,15 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="T12" r:id="rId1" xr:uid="{6CB2DCCE-3C1A-47BC-A4C9-6FFC4AAD7AB6}"/>
-    <hyperlink ref="Q24" r:id="rId2" xr:uid="{EF537979-5586-473C-BB83-F30221678B20}"/>
-    <hyperlink ref="Q40" r:id="rId3" xr:uid="{1A8BE4BE-8D25-4306-B41C-342D50EEA1CD}"/>
-    <hyperlink ref="T28" r:id="rId4" xr:uid="{27937427-AE6F-488A-87DE-02DD98070165}"/>
-    <hyperlink ref="T24" r:id="rId5" xr:uid="{6ED435C4-C389-4A62-88C4-D71FDD8FDE33}"/>
-    <hyperlink ref="Q34" r:id="rId6" xr:uid="{59CA056E-3439-4AA7-B4A1-620F82C8EC54}"/>
-    <hyperlink ref="Q31" r:id="rId7" xr:uid="{9864A21E-B935-4AF1-9E11-B64A4D233787}"/>
-    <hyperlink ref="Q37" r:id="rId8" xr:uid="{4AFB8A3F-BDDB-40C2-9366-06919D486449}"/>
-    <hyperlink ref="Q43" r:id="rId9" xr:uid="{6DE0A0B1-B974-46F7-B08F-6644E1484DF8}"/>
-    <hyperlink ref="Q28" r:id="rId10" xr:uid="{93B38D87-F307-486B-BEE1-70970F9CE47C}"/>
+    <hyperlink ref="Q22" r:id="rId2" xr:uid="{EF537979-5586-473C-BB83-F30221678B20}"/>
+    <hyperlink ref="Q37" r:id="rId3" xr:uid="{1A8BE4BE-8D25-4306-B41C-342D50EEA1CD}"/>
+    <hyperlink ref="T25" r:id="rId4" xr:uid="{27937427-AE6F-488A-87DE-02DD98070165}"/>
+    <hyperlink ref="T22" r:id="rId5" xr:uid="{6ED435C4-C389-4A62-88C4-D71FDD8FDE33}"/>
+    <hyperlink ref="Q31" r:id="rId6" xr:uid="{59CA056E-3439-4AA7-B4A1-620F82C8EC54}"/>
+    <hyperlink ref="Q28" r:id="rId7" xr:uid="{9864A21E-B935-4AF1-9E11-B64A4D233787}"/>
+    <hyperlink ref="Q34" r:id="rId8" xr:uid="{4AFB8A3F-BDDB-40C2-9366-06919D486449}"/>
+    <hyperlink ref="Q40" r:id="rId9" xr:uid="{6DE0A0B1-B974-46F7-B08F-6644E1484DF8}"/>
+    <hyperlink ref="Q25" r:id="rId10" xr:uid="{93B38D87-F307-486B-BEE1-70970F9CE47C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
